--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,28 +52,34 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>selfish</t>
   </si>
   <si>
     <t>sc</t>
@@ -82,30 +88,33 @@
     <t>drop</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>lower</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -115,6 +124,9 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -127,39 +139,36 @@
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -172,37 +181,52 @@
     <t>like</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -560,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -700,16 +724,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,31 +771,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="L5">
+        <v>116</v>
+      </c>
+      <c r="M5">
+        <v>116</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L5">
-        <v>56</v>
-      </c>
-      <c r="M5">
-        <v>56</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,16 +824,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -829,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8698630136986302</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C7">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.9242819843342036</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L7">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8620689655172413</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9268929503916449</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>355</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>355</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7948717948717948</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.9084507042253521</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7948717948717948</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8984375</v>
+        <v>0.90625</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.775</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8962264150943396</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7674418604651163</v>
+        <v>0.775</v>
       </c>
       <c r="C12">
-        <v>396</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>396</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.89375</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L12">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="M12">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7567567567567568</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,16 +1174,16 @@
         <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.8936170212765957</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7450980392156863</v>
+        <v>0.7577519379844961</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>391</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>391</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.8839285714285714</v>
+        <v>0.8875</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7407407407407407</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C15">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.8658536585365854</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.711864406779661</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>0.8620689655172413</v>
@@ -1329,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6944444444444444</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K17">
         <v>0.8611111111111112</v>
@@ -1379,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6644295302013423</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="C18">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K18">
-        <v>0.8333333333333334</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6181818181818182</v>
+        <v>0.6510067114093959</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>0.8253968253968254</v>
@@ -1479,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5866666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K20">
         <v>0.7916666666666666</v>
@@ -1529,13 +1553,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5636363636363636</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K21">
         <v>0.78</v>
@@ -1579,13 +1603,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.7735294117647059</v>
+        <v>0.7764705882352941</v>
       </c>
       <c r="L22">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M22">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1653,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4777777777777778</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C23">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.7531380753138075</v>
+        <v>0.775</v>
       </c>
       <c r="L23">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1679,13 +1703,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4047619047619048</v>
+        <v>0.373015873015873</v>
       </c>
       <c r="C24">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D24">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1697,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.7528089887640449</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L24">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1721,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1729,13 +1753,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1313672922252011</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C25">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1747,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.7482993197278912</v>
+        <v>0.7423728813559322</v>
       </c>
       <c r="L25">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M25">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1768,76 +1792,148 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.35</v>
+      </c>
+      <c r="C26">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>52</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>0.7415730337078652</v>
+      </c>
+      <c r="L26">
+        <v>66</v>
+      </c>
+      <c r="M26">
+        <v>66</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.3111111111111111</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>62</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.7364016736401674</v>
+      </c>
+      <c r="L27">
+        <v>176</v>
+      </c>
+      <c r="M27">
+        <v>176</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.1983914209115281</v>
+      </c>
+      <c r="C28">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26">
-        <v>0.7450980392156863</v>
-      </c>
-      <c r="L26">
-        <v>38</v>
-      </c>
-      <c r="M26">
-        <v>38</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27">
-        <v>0.7340425531914894</v>
-      </c>
-      <c r="L27">
-        <v>69</v>
-      </c>
-      <c r="M27">
-        <v>69</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="D28">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>299</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.7230769230769231</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1849,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.7</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L29">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1875,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1901,21 +1997,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.5616438356164384</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1927,21 +2023,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1953,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.4615384615384616</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1979,7 +2075,137 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="L34">
+        <v>45</v>
+      </c>
+      <c r="M34">
+        <v>45</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35">
+        <v>0.5573770491803278</v>
+      </c>
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <v>34</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="L36">
+        <v>40</v>
+      </c>
+      <c r="M36">
+        <v>40</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37">
+        <v>0.5</v>
+      </c>
+      <c r="L37">
+        <v>32</v>
+      </c>
+      <c r="M37">
+        <v>32</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
